--- a/spliced/struggle/2023-03-25_18-15-46/accelerometer_selected.xlsx
+++ b/spliced/struggle/2023-03-25_18-15-46/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-2.114709377288818</v>
+        <v>14.36146354675293</v>
       </c>
       <c r="B2" t="n">
-        <v>-6.455168724060059</v>
+        <v>-2.813630223274229</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8483291864395142</v>
+        <v>2.31547799706459</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-2.951430380344392</v>
+        <v>7.119595527648926</v>
       </c>
       <c r="B3" t="n">
-        <v>-5.366402566432953</v>
+        <v>-10.00965690612793</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.05824550986290022</v>
+        <v>2.071655035018921</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-2.621240258216858</v>
+        <v>-0.3092890381813076</v>
       </c>
       <c r="B4" t="n">
-        <v>-7.812355875968931</v>
+        <v>-7.561092853546142</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.674638897180556</v>
+        <v>3.192377448081971</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.4384793639183036</v>
+        <v>-0.1974980831146222</v>
       </c>
       <c r="B5" t="n">
-        <v>-9.088106513023378</v>
+        <v>-4.94487106800079</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6269187033176431</v>
+        <v>4.721822917461397</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-2.520418167114265</v>
+        <v>-2.194161117076871</v>
       </c>
       <c r="B6" t="n">
-        <v>-9.16901969909668</v>
+        <v>-4.593446969985962</v>
       </c>
       <c r="C6" t="n">
-        <v>5.744026303291324</v>
+        <v>3.157028853893282</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.395012557506554</v>
+        <v>-0.8586132526397767</v>
       </c>
       <c r="B7" t="n">
-        <v>-5.392867326736445</v>
+        <v>-10.09085631370543</v>
       </c>
       <c r="C7" t="n">
-        <v>8.651888370513916</v>
+        <v>-3.983258485794054</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8.336565375328052</v>
+        <v>2.208070576190949</v>
       </c>
       <c r="B8" t="n">
-        <v>0.02383470535278576</v>
+        <v>-11.74357312917708</v>
       </c>
       <c r="C8" t="n">
-        <v>8.412825703620918</v>
+        <v>-5.92425370216368</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>14.36146354675293</v>
+        <v>0.8976666927337558</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.813630223274229</v>
+        <v>-6.909027695655827</v>
       </c>
       <c r="C9" t="n">
-        <v>2.31547799706459</v>
+        <v>1.685739278793339</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>7.119595527648926</v>
+        <v>-3.808973312377933</v>
       </c>
       <c r="B10" t="n">
-        <v>-10.00965690612793</v>
+        <v>-9.732912957668304</v>
       </c>
       <c r="C10" t="n">
-        <v>2.071655035018921</v>
+        <v>4.339319378137589</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.3092890381813076</v>
+        <v>1.211441993713379</v>
       </c>
       <c r="B11" t="n">
-        <v>-7.561092853546142</v>
+        <v>-4.946407794952393</v>
       </c>
       <c r="C11" t="n">
-        <v>3.192377448081971</v>
+        <v>2.633680582046509</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.1974980831146222</v>
+        <v>-1.650709629058838</v>
       </c>
       <c r="B12" t="n">
-        <v>-4.94487106800079</v>
+        <v>-4.344925820827484</v>
       </c>
       <c r="C12" t="n">
-        <v>4.721822917461397</v>
+        <v>4.874097138643265</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-2.194161117076871</v>
+        <v>-3.371967196464541</v>
       </c>
       <c r="B13" t="n">
-        <v>-4.593446969985962</v>
+        <v>-3.051161766052245</v>
       </c>
       <c r="C13" t="n">
-        <v>3.157028853893282</v>
+        <v>5.898134231567384</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.8586132526397767</v>
+        <v>-2.243164837360378</v>
       </c>
       <c r="B14" t="n">
-        <v>-10.09085631370543</v>
+        <v>-0.9728509187698318</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.983258485794054</v>
+        <v>7.228664159774784</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.208070576190949</v>
+        <v>1.634144544601426</v>
       </c>
       <c r="B15" t="n">
-        <v>-11.74357312917708</v>
+        <v>-3.087035417556748</v>
       </c>
       <c r="C15" t="n">
-        <v>-5.92425370216368</v>
+        <v>5.197757840156568</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.8976666927337558</v>
+        <v>0.4866030216217228</v>
       </c>
       <c r="B16" t="n">
-        <v>-6.909027695655827</v>
+        <v>-5.888972640037538</v>
       </c>
       <c r="C16" t="n">
-        <v>1.685739278793339</v>
+        <v>5.150876790285098</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-3.808973312377933</v>
+        <v>-3.873410999774934</v>
       </c>
       <c r="B17" t="n">
-        <v>-9.732912957668304</v>
+        <v>2.929124236106873</v>
       </c>
       <c r="C17" t="n">
-        <v>4.339319378137589</v>
+        <v>4.643965721130372</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.211441993713379</v>
+        <v>3.477634161710739</v>
       </c>
       <c r="B18" t="n">
-        <v>-4.946407794952393</v>
+        <v>24.22354996204378</v>
       </c>
       <c r="C18" t="n">
-        <v>2.633680582046509</v>
+        <v>-8.259647905826574</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-1.650709629058838</v>
+        <v>3.516963958740234</v>
       </c>
       <c r="B19" t="n">
-        <v>-4.344925820827484</v>
+        <v>-0.7771883010864258</v>
       </c>
       <c r="C19" t="n">
-        <v>4.874097138643265</v>
+        <v>4.514358997344971</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-3.371967196464541</v>
+        <v>-0.7894209027290375</v>
       </c>
       <c r="B20" t="n">
-        <v>-3.051161766052245</v>
+        <v>0.4619972705841073</v>
       </c>
       <c r="C20" t="n">
-        <v>5.898134231567384</v>
+        <v>8.847737967967991</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-2.243164837360378</v>
+        <v>-0.04974877834320068</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.9728509187698318</v>
+        <v>-2.565077662467957</v>
       </c>
       <c r="C21" t="n">
-        <v>7.228664159774784</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>1.634144544601426</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-3.087035417556748</v>
-      </c>
-      <c r="C22" t="n">
-        <v>5.197757840156568</v>
+        <v>6.396960973739624</v>
       </c>
     </row>
   </sheetData>
